--- a/medicine/Psychotrope/Lavilledieu_(IGP)/Lavilledieu_(IGP).xlsx
+++ b/medicine/Psychotrope/Lavilledieu_(IGP)/Lavilledieu_(IGP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le lavilledieu[1] est un vin français, labellisé indication géographique protégée (IGP), produit dans le département de Tarn-et-Garonne[2].
+Le lavilledieu est un vin français, labellisé indication géographique protégée (IGP), produit dans le département de Tarn-et-Garonne.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine
-Le vignoble de Lavilledieu reconnu V.D.Q.S depuis 1947.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble de Lavilledieu reconnu V.D.Q.S depuis 1947.
 </t>
         </is>
       </c>
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,14 +586,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Orographie
-Géologie
-Climatologie</t>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble couvre environ 150 ha pour un potentiel de 8 500hl.
+</t>
         </is>
       </c>
     </row>
@@ -607,17 +624,88 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Le vignoble couvre environ 150 ha pour un potentiel de 8 500hl.
-Présentation
-Entre Montauban et Castelsarrasin, le vignoble s'étend sur 13 communes : La Ville-Dieu-du-Temple, Meauzac, Barry-d'Islemade, Albefeuille-Lagarde, Montbeton, Lacourt-Saint-Pierre, Bressols, Montech, Escatalens, Saint-Porquier, Castelsarrasin, Les Barthes, Labastide-du-Temple
-Encépagement
-Ce vin ensemble uniquement des cépages rouges : négrette (30 %), cabernet franc (25 %), gamay (25 %), syrah (25 %) et tannat (15 %). Les vins proviennent de l'assemblage de raisins ou de vins issus obligatoirement d'au moins quatre de ces cépages.
-Méthodes culturales
-Terroir et vins
-Structure des exploitations
-Type de vins et gastronomie
-Jeune, il est généralement tendre, souple et peut vieillir jusqu'à 5 ans. Pour les plus charpentés, il se bonifie en bouteille entre 7 et 8 ans. Le rosé, essentiellement à base de négrette est très typé. 
-Commercialisation</t>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre Montauban et Castelsarrasin, le vignoble s'étend sur 13 communes : La Ville-Dieu-du-Temple, Meauzac, Barry-d'Islemade, Albefeuille-Lagarde, Montbeton, Lacourt-Saint-Pierre, Bressols, Montech, Escatalens, Saint-Porquier, Castelsarrasin, Les Barthes, Labastide-du-Temple
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lavilledieu_(IGP)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavilledieu_(IGP)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vin ensemble uniquement des cépages rouges : négrette (30 %), cabernet franc (25 %), gamay (25 %), syrah (25 %) et tannat (15 %). Les vins proviennent de l'assemblage de raisins ou de vins issus obligatoirement d'au moins quatre de ces cépages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lavilledieu_(IGP)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavilledieu_(IGP)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeune, il est généralement tendre, souple et peut vieillir jusqu'à 5 ans. Pour les plus charpentés, il se bonifie en bouteille entre 7 et 8 ans. Le rosé, essentiellement à base de négrette est très typé. 
+</t>
         </is>
       </c>
     </row>
